--- a/tools_n_data/kokuriko-ghibri.xlsx
+++ b/tools_n_data/kokuriko-ghibri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="72">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -96,7 +96,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">메모</t>
+      <t xml:space="preserve">note</t>
     </r>
   </si>
   <si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">#category</t>
   </si>
   <si>
-    <t xml:space="preserve">Melody</t>
+    <t xml:space="preserve">FingerStyle</t>
   </si>
   <si>
     <t xml:space="preserve">#source</t>
@@ -131,7 +131,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">지브리</t>
+      <t xml:space="preserve">스튜디오지브리 우쿨렐레 콜렉션 – 코쿠리코</t>
     </r>
     <r>
       <rPr>
@@ -149,7 +149,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">애니메이션</t>
+      <t xml:space="preserve">언덕에서 </t>
     </r>
     <r>
       <rPr>
@@ -158,43 +158,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">코쿠리코</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">언덕에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">' OST</t>
+      <t xml:space="preserve">OST</t>
     </r>
   </si>
   <si>
@@ -254,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7</t>
   </si>
   <si>
     <t xml:space="preserve">;</t>
@@ -330,25 +297,55 @@
     <t xml:space="preserve">#technic</t>
   </si>
   <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">5c</t>
   </si>
   <si>
+    <t xml:space="preserve">2a</t>
+  </si>
+  <si>
     <t xml:space="preserve">3i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10c</t>
   </si>
   <si>
     <t xml:space="preserve">5a</t>
   </si>
   <si>
-    <t xml:space="preserve">8c</t>
+    <t xml:space="preserve">8m</t>
   </si>
   <si>
-    <t xml:space="preserve">5i</t>
+    <t xml:space="preserve">9a</t>
   </si>
   <si>
-    <t xml:space="preserve">10c</t>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7</t>
   </si>
   <si>
     <t xml:space="preserve">7m</t>
@@ -356,14 +353,21 @@
   <si>
     <t xml:space="preserve">5m</t>
   </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY&quot;년 &quot;M&quot;월 &quot;D&quot;일 &quot;H&quot;시 &quot;M&quot;분 &quot;S\초"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -551,7 +555,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,6 +637,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,7 +729,7 @@
   <dimension ref="A1:CI562"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +747,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="88" style="0" width="3.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +770,7 @@
       </c>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,7 +793,7 @@
       </c>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -805,7 +813,7 @@
       <c r="M3" s="9"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -845,7 +853,7 @@
       <c r="M5" s="10"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -888,7 +896,7 @@
       <c r="M7" s="12"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -908,7 +916,7 @@
       <c r="M8" s="13"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -940,12 +948,12 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -986,7 +994,7 @@
       </c>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1017,7 @@
       </c>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1040,7 @@
       </c>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1089,9 +1097,11 @@
       <c r="N18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="18"/>
+      <c r="T18" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="Z18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -1157,102 +1167,102 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1279,31 +1289,47 @@
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2"/>
       <c r="H24" s="2"/>
       <c r="N24" s="2"/>
       <c r="T24" s="2"/>
       <c r="Z24" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N25" s="2"/>
+      <c r="P25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="Z25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,13 +1337,19 @@
         <v>27</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="N26" s="18"/>
-      <c r="T26" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="Z26" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -1383,23 +1415,23 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L27" s="19"/>
       <c r="N27" s="18" t="n">
@@ -1413,53 +1445,84 @@
       <c r="T27" s="18"/>
       <c r="X27" s="19"/>
       <c r="Z27" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L28" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N28" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="R28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z29" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -1486,43 +1549,51 @@
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2"/>
       <c r="H32" s="2"/>
       <c r="N32" s="2"/>
       <c r="T32" s="2"/>
       <c r="Z32" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="H33" s="2"/>
       <c r="N33" s="2"/>
       <c r="T33" s="2"/>
       <c r="Z33" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="N34" s="18"/>
-      <c r="T34" s="18"/>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="Z34" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -1588,7 +1659,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="18"/>
       <c r="F35" s="19"/>
@@ -1598,37 +1669,37 @@
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R35" s="19"/>
       <c r="S35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="X35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
@@ -1636,38 +1707,62 @@
       <c r="I36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N36" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R36" s="19"/>
+      <c r="T36" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z36" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="N37" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R37" s="19"/>
-      <c r="X37" s="21"/>
+      <c r="T37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" s="22"/>
       <c r="Z37" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Z38" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -1694,43 +1789,51 @@
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2"/>
       <c r="H40" s="2"/>
       <c r="N40" s="2"/>
       <c r="T40" s="2"/>
       <c r="Z40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2"/>
       <c r="H41" s="2"/>
       <c r="N41" s="2"/>
       <c r="T41" s="2"/>
       <c r="Z41" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="N42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="Z42" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -1796,22 +1899,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="L43" s="19"/>
       <c r="N43" s="18" t="n">
@@ -1823,54 +1929,113 @@
       </c>
       <c r="R43" s="19"/>
       <c r="T43" s="18"/>
+      <c r="W43" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="Z43" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="R44" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R45" s="19"/>
-      <c r="X45" s="21"/>
+      <c r="T45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="Z45" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -1897,43 +2062,54 @@
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2"/>
       <c r="H48" s="2"/>
       <c r="N48" s="2"/>
       <c r="T48" s="2"/>
       <c r="Z48" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2"/>
       <c r="H49" s="2"/>
       <c r="N49" s="2"/>
       <c r="T49" s="2"/>
       <c r="Z49" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="N50" s="18"/>
-      <c r="T50" s="18"/>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="Z50" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -1999,7 +2175,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="18"/>
       <c r="F51" s="19"/>
@@ -2009,37 +2185,40 @@
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R51" s="19"/>
       <c r="T51" s="18" t="n">
         <v>0</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Z51" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
@@ -2047,41 +2226,71 @@
       <c r="I52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="R52" s="19"/>
       <c r="S52" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="N53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="R53" s="19"/>
-      <c r="X53" s="21"/>
+      <c r="T53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" s="22"/>
       <c r="Z53" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="Z54" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -2105,46 +2314,58 @@
       <c r="U55" s="20"/>
       <c r="V55" s="20"/>
       <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
+      <c r="X55" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y55" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="Z55" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2"/>
       <c r="H56" s="2"/>
       <c r="N56" s="2"/>
       <c r="T56" s="2"/>
       <c r="Z56" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2"/>
       <c r="H57" s="2"/>
       <c r="N57" s="2"/>
       <c r="T57" s="2"/>
       <c r="Z57" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="N58" s="18"/>
-      <c r="T58" s="18"/>
+      <c r="B58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="Z58" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -2210,82 +2431,121 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T59" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R59" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="S59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="T59" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="X59" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y59" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z59" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R60" s="19"/>
+      <c r="T60" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Z60" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="R61" s="19"/>
-      <c r="X61" s="21"/>
+      <c r="T61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X61" s="22"/>
       <c r="Z61" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z62" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -2312,43 +2572,51 @@
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2"/>
       <c r="H64" s="2"/>
       <c r="N64" s="2"/>
       <c r="T64" s="2"/>
       <c r="Z64" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2"/>
       <c r="H65" s="2"/>
       <c r="N65" s="2"/>
       <c r="T65" s="2"/>
       <c r="Z65" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="N66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="B66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="Z66" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
@@ -2414,73 +2682,111 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="18"/>
       <c r="J67" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N67" s="18" t="n">
         <v>0</v>
       </c>
       <c r="P67" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R67" s="19"/>
-      <c r="T67" s="18"/>
+      <c r="T67" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="X67" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Z67" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="R68" s="19"/>
+      <c r="T68" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Z68" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="R69" s="19"/>
-      <c r="X69" s="21"/>
+      <c r="T69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X69" s="22"/>
       <c r="Z69" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z70" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -2507,43 +2813,51 @@
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2"/>
       <c r="H72" s="2"/>
       <c r="N72" s="2"/>
       <c r="T72" s="2"/>
       <c r="Z72" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2"/>
       <c r="H73" s="2"/>
       <c r="N73" s="2"/>
       <c r="T73" s="2"/>
       <c r="Z73" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="N74" s="18"/>
-      <c r="T74" s="18"/>
+      <c r="B74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="Z74" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -2609,82 +2923,124 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="R75" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y75" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z75" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R76" s="19"/>
+      <c r="T76" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Z76" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="R77" s="19"/>
-      <c r="X77" s="21"/>
+      <c r="T77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V77" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X77" s="22"/>
       <c r="Z77" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Z78" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -2711,43 +3067,51 @@
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" s="2"/>
       <c r="H80" s="2"/>
       <c r="N80" s="2"/>
       <c r="T80" s="2"/>
       <c r="Z80" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" s="2"/>
       <c r="H81" s="2"/>
       <c r="N81" s="2"/>
       <c r="T81" s="2"/>
       <c r="Z81" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="N82" s="18"/>
-      <c r="T82" s="18"/>
+      <c r="B82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T82" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="Z82" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
@@ -2813,71 +3177,130 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B83" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="18"/>
       <c r="J83" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L83" s="19"/>
       <c r="M83" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P83" s="19"/>
       <c r="R83" s="19"/>
-      <c r="T83" s="18"/>
+      <c r="T83" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="Z83" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="R84" s="19"/>
+      <c r="S84" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="X84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z84" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="P85" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="R85" s="19"/>
-      <c r="X85" s="21"/>
+      <c r="T85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X85" s="22"/>
       <c r="Z85" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z86" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -2904,43 +3327,51 @@
       <c r="X87" s="20"/>
       <c r="Y87" s="20"/>
       <c r="Z87" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2"/>
       <c r="H88" s="2"/>
       <c r="N88" s="2"/>
       <c r="T88" s="2"/>
       <c r="Z88" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B89" s="2"/>
       <c r="H89" s="2"/>
       <c r="N89" s="2"/>
       <c r="T89" s="2"/>
       <c r="Z89" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="N90" s="18"/>
-      <c r="T90" s="18"/>
+      <c r="B90" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="Z90" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
@@ -3004,24 +3435,25 @@
       <c r="CH90" s="1"/>
       <c r="CI90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D91" s="19"/>
       <c r="E91" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L91" s="19"/>
       <c r="N91" s="18" t="n">
@@ -3033,54 +3465,86 @@
       </c>
       <c r="R91" s="19"/>
       <c r="T91" s="18"/>
+      <c r="X91" s="19"/>
       <c r="Z91" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L92" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R92" s="19" t="s">
-        <v>33</v>
+      <c r="N92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R92" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="S92" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Z92" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R93" s="19"/>
-      <c r="X93" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="B93" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z93" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T94" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z94" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -3107,43 +3571,54 @@
       <c r="X95" s="20"/>
       <c r="Y95" s="20"/>
       <c r="Z95" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" s="2"/>
       <c r="H96" s="2"/>
       <c r="N96" s="2"/>
       <c r="T96" s="2"/>
       <c r="Z96" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" s="2"/>
       <c r="H97" s="2"/>
       <c r="N97" s="2"/>
       <c r="T97" s="2"/>
       <c r="Z97" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="N98" s="18"/>
-      <c r="T98" s="18"/>
+      <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P98" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T98" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="Z98" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
@@ -3207,9 +3682,9 @@
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" s="18"/>
       <c r="F99" s="19"/>
@@ -3219,34 +3694,37 @@
       </c>
       <c r="L99" s="19"/>
       <c r="M99" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="P99" s="19" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="R99" s="19"/>
-      <c r="S99" s="0" t="n">
+      <c r="T99" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="T99" s="18" t="s">
-        <v>46</v>
+      <c r="X99" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
@@ -3254,41 +3732,80 @@
       <c r="I100" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="R100" s="19"/>
-      <c r="X100" s="0" t="n">
+      <c r="S100" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="W100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="Z100" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="N101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="R101" s="19"/>
-      <c r="X101" s="21"/>
+      <c r="T101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" s="22"/>
       <c r="Z101" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="Z102" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -3315,44 +3832,51 @@
       <c r="X103" s="20"/>
       <c r="Y103" s="20"/>
       <c r="Z103" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" s="2"/>
       <c r="H104" s="2"/>
       <c r="N104" s="2"/>
       <c r="T104" s="2"/>
       <c r="Z104" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B105" s="2"/>
       <c r="H105" s="2"/>
       <c r="N105" s="2"/>
       <c r="T105" s="2"/>
       <c r="Z105" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="N106" s="18"/>
+      <c r="B106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="T106" s="18"/>
-      <c r="Z106" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z106" s="8"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
@@ -3415,82 +3939,88 @@
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="19"/>
+      <c r="N107" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L107" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="P107" s="19"/>
-      <c r="Q107" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R107" s="19"/>
       <c r="T107" s="18"/>
-      <c r="Z107" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z107" s="8"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R108" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="S108" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X108" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z108" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R108" s="19"/>
+      <c r="Z108" s="8"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="R109" s="19"/>
-      <c r="X109" s="21"/>
-      <c r="Z109" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X109" s="22"/>
+      <c r="Z109" s="8"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z110" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z110" s="8"/>
+    </row>
+    <row r="111" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -3504,7 +4034,9 @@
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
+      <c r="N111" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="O111" s="20"/>
       <c r="P111" s="20"/>
       <c r="Q111" s="20"/>
@@ -3516,45 +4048,38 @@
       <c r="W111" s="20"/>
       <c r="X111" s="20"/>
       <c r="Y111" s="20"/>
-      <c r="Z111" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z111" s="8"/>
+    </row>
+    <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="T112" s="2"/>
-      <c r="Z112" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z112" s="8"/>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="T113" s="2"/>
-      <c r="Z113" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z113" s="8"/>
+    </row>
+    <row r="114" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2"/>
       <c r="H114" s="2"/>
       <c r="N114" s="18"/>
       <c r="T114" s="18"/>
-      <c r="Z114" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z114" s="8"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
@@ -3618,91 +4143,39 @@
       <c r="CI114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A115" s="8"/>
       <c r="B115" s="18"/>
       <c r="F115" s="19"/>
       <c r="H115" s="18"/>
-      <c r="J115" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="L115" s="19"/>
-      <c r="M115" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N115" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O115" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P115" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="M115" s="22"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="19"/>
       <c r="R115" s="19"/>
-      <c r="T115" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X115" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z115" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="T115" s="18"/>
+      <c r="Z115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A116" s="8"/>
+      <c r="E116" s="22"/>
       <c r="R116" s="19"/>
-      <c r="S116" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z116" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S116" s="22"/>
+      <c r="Z116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A117" s="8"/>
+      <c r="G117" s="22"/>
       <c r="R117" s="19"/>
-      <c r="X117" s="21"/>
-      <c r="Z117" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z118" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X117" s="22"/>
+      <c r="Z117" s="8"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8"/>
+      <c r="Z118" s="8"/>
+    </row>
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -3727,45 +4200,30 @@
       <c r="W119" s="20"/>
       <c r="X119" s="20"/>
       <c r="Y119" s="20"/>
-      <c r="Z119" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z119" s="8"/>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8"/>
       <c r="B120" s="2"/>
       <c r="H120" s="2"/>
       <c r="N120" s="2"/>
       <c r="T120" s="2"/>
-      <c r="Z120" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z120" s="8"/>
+    </row>
+    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8"/>
       <c r="B121" s="2"/>
       <c r="H121" s="2"/>
       <c r="N121" s="2"/>
       <c r="T121" s="2"/>
-      <c r="Z121" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z121" s="8"/>
+    </row>
+    <row r="122" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2"/>
       <c r="H122" s="2"/>
       <c r="N122" s="18"/>
       <c r="T122" s="18"/>
-      <c r="Z122" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z122" s="8"/>
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
@@ -3828,85 +4286,35 @@
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L123" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N123" s="18" t="s">
-        <v>57</v>
-      </c>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8"/>
+      <c r="B123" s="18"/>
+      <c r="F123" s="19"/>
+      <c r="H123" s="18"/>
+      <c r="L123" s="19"/>
+      <c r="N123" s="18"/>
       <c r="P123" s="19"/>
-      <c r="Q123" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R123" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S123" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="T123" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="X123" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y123" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z123" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="R123" s="19"/>
+      <c r="T123" s="18"/>
+      <c r="Z123" s="8"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8"/>
       <c r="R124" s="19"/>
-      <c r="Z124" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z124" s="8"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="8"/>
       <c r="R125" s="19"/>
-      <c r="X125" s="21"/>
-      <c r="Z125" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z126" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X125" s="22"/>
+      <c r="Z125" s="8"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8"/>
+      <c r="Z126" s="8"/>
+    </row>
+    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -3931,45 +4339,30 @@
       <c r="W127" s="20"/>
       <c r="X127" s="20"/>
       <c r="Y127" s="20"/>
-      <c r="Z127" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z127" s="8"/>
+    </row>
+    <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8"/>
       <c r="B128" s="2"/>
       <c r="H128" s="2"/>
       <c r="N128" s="2"/>
       <c r="T128" s="2"/>
-      <c r="Z128" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z128" s="8"/>
+    </row>
+    <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8"/>
       <c r="B129" s="2"/>
       <c r="H129" s="2"/>
       <c r="N129" s="2"/>
       <c r="T129" s="2"/>
-      <c r="Z129" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z129" s="8"/>
+    </row>
+    <row r="130" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2"/>
       <c r="H130" s="2"/>
       <c r="N130" s="18"/>
       <c r="T130" s="18"/>
-      <c r="Z130" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z130" s="8"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
@@ -4032,76 +4425,35 @@
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="0" t="n">
-        <v>0</v>
-      </c>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="8"/>
+      <c r="B131" s="18"/>
+      <c r="F131" s="19"/>
       <c r="H131" s="18"/>
-      <c r="J131" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="L131" s="19"/>
-      <c r="M131" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N131" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="N131" s="18"/>
+      <c r="P131" s="19"/>
       <c r="R131" s="19"/>
       <c r="T131" s="18"/>
-      <c r="X131" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z131" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8"/>
       <c r="R132" s="19"/>
-      <c r="Z132" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z132" s="8"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="8"/>
       <c r="R133" s="19"/>
-      <c r="X133" s="21"/>
-      <c r="Z133" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z134" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X133" s="22"/>
+      <c r="Z133" s="8"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="8"/>
+      <c r="Z134" s="8"/>
+    </row>
+    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="8"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -4126,45 +4478,30 @@
       <c r="W135" s="20"/>
       <c r="X135" s="20"/>
       <c r="Y135" s="20"/>
-      <c r="Z135" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z135" s="8"/>
+    </row>
+    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="8"/>
       <c r="B136" s="2"/>
       <c r="H136" s="2"/>
       <c r="N136" s="2"/>
       <c r="T136" s="2"/>
-      <c r="Z136" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z136" s="8"/>
+    </row>
+    <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="8"/>
       <c r="B137" s="2"/>
       <c r="H137" s="2"/>
       <c r="N137" s="2"/>
       <c r="T137" s="2"/>
-      <c r="Z137" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z137" s="8"/>
+    </row>
+    <row r="138" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2"/>
       <c r="H138" s="2"/>
       <c r="N138" s="18"/>
       <c r="T138" s="18"/>
-      <c r="Z138" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z138" s="8"/>
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
@@ -4227,85 +4564,35 @@
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H139" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L139" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N139" s="18" t="s">
-        <v>38</v>
-      </c>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8"/>
+      <c r="B139" s="18"/>
+      <c r="F139" s="19"/>
+      <c r="H139" s="18"/>
+      <c r="L139" s="19"/>
+      <c r="N139" s="18"/>
       <c r="P139" s="19"/>
-      <c r="Q139" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R139" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S139" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="T139" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="X139" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y139" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z139" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="R139" s="19"/>
+      <c r="T139" s="18"/>
+      <c r="Z139" s="8"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8"/>
       <c r="R140" s="19"/>
-      <c r="Z140" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z140" s="8"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8"/>
       <c r="R141" s="19"/>
-      <c r="X141" s="21"/>
-      <c r="Z141" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z142" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X141" s="22"/>
+      <c r="Z141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8"/>
+      <c r="Z142" s="8"/>
+    </row>
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -4330,45 +4617,30 @@
       <c r="W143" s="20"/>
       <c r="X143" s="20"/>
       <c r="Y143" s="20"/>
-      <c r="Z143" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z143" s="8"/>
+    </row>
+    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8"/>
       <c r="B144" s="2"/>
       <c r="H144" s="2"/>
       <c r="N144" s="2"/>
       <c r="T144" s="2"/>
-      <c r="Z144" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z144" s="8"/>
+    </row>
+    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="8"/>
       <c r="B145" s="2"/>
       <c r="H145" s="2"/>
       <c r="N145" s="2"/>
       <c r="T145" s="2"/>
-      <c r="Z145" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z145" s="8"/>
+    </row>
+    <row r="146" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2"/>
       <c r="H146" s="2"/>
       <c r="N146" s="18"/>
       <c r="T146" s="18"/>
-      <c r="Z146" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z146" s="8"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
@@ -4431,74 +4703,35 @@
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G147" s="0" t="n">
-        <v>0</v>
-      </c>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="8"/>
+      <c r="B147" s="18"/>
+      <c r="F147" s="19"/>
       <c r="H147" s="18"/>
-      <c r="J147" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="L147" s="19"/>
-      <c r="M147" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="N147" s="18"/>
       <c r="P147" s="19"/>
       <c r="R147" s="19"/>
       <c r="T147" s="18"/>
-      <c r="Z147" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z147" s="8"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="8"/>
       <c r="R148" s="19"/>
-      <c r="X148" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z148" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z148" s="8"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="8"/>
       <c r="R149" s="19"/>
-      <c r="X149" s="21"/>
-      <c r="Z149" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z150" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X149" s="22"/>
+      <c r="Z149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="8"/>
+      <c r="Z150" s="8"/>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="8"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -4523,45 +4756,30 @@
       <c r="W151" s="20"/>
       <c r="X151" s="20"/>
       <c r="Y151" s="20"/>
-      <c r="Z151" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z151" s="8"/>
+    </row>
+    <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="8"/>
       <c r="B152" s="2"/>
       <c r="H152" s="2"/>
       <c r="N152" s="2"/>
       <c r="T152" s="2"/>
-      <c r="Z152" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z152" s="8"/>
+    </row>
+    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="8"/>
       <c r="B153" s="2"/>
       <c r="H153" s="2"/>
       <c r="N153" s="2"/>
       <c r="T153" s="2"/>
-      <c r="Z153" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="154" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z153" s="8"/>
+    </row>
+    <row r="154" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="2"/>
       <c r="H154" s="2"/>
       <c r="N154" s="18"/>
       <c r="T154" s="18"/>
-      <c r="Z154" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z154" s="8"/>
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
@@ -4624,84 +4842,35 @@
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G155" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="18" t="s">
-        <v>46</v>
-      </c>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="8"/>
+      <c r="B155" s="18"/>
+      <c r="F155" s="19"/>
+      <c r="H155" s="18"/>
       <c r="L155" s="19"/>
-      <c r="N155" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="N155" s="18"/>
       <c r="P155" s="19"/>
-      <c r="Q155" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R155" s="19"/>
       <c r="T155" s="18"/>
-      <c r="Z155" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R156" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="S156" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="T156" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z156" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="Z155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="8"/>
+      <c r="R156" s="19"/>
+      <c r="Z156" s="8"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="8"/>
       <c r="R157" s="19"/>
-      <c r="X157" s="21"/>
-      <c r="Z157" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z158" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X157" s="22"/>
+      <c r="Z157" s="8"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="8"/>
+      <c r="Z158" s="8"/>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="8"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -4726,45 +4895,30 @@
       <c r="W159" s="20"/>
       <c r="X159" s="20"/>
       <c r="Y159" s="20"/>
-      <c r="Z159" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z159" s="8"/>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="8"/>
       <c r="B160" s="2"/>
       <c r="H160" s="2"/>
       <c r="N160" s="2"/>
       <c r="T160" s="2"/>
-      <c r="Z160" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z160" s="8"/>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="8"/>
       <c r="B161" s="2"/>
       <c r="H161" s="2"/>
       <c r="N161" s="2"/>
       <c r="T161" s="2"/>
-      <c r="Z161" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z161" s="8"/>
+    </row>
+    <row r="162" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="2"/>
       <c r="H162" s="2"/>
       <c r="N162" s="18"/>
       <c r="T162" s="18"/>
-      <c r="Z162" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z162" s="8"/>
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
@@ -4828,88 +4982,34 @@
       <c r="CI162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A163" s="8"/>
       <c r="B163" s="18"/>
       <c r="F163" s="19"/>
       <c r="H163" s="18"/>
-      <c r="J163" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="L163" s="19"/>
-      <c r="M163" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N163" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="O163" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P163" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="N163" s="18"/>
+      <c r="P163" s="19"/>
       <c r="R163" s="19"/>
-      <c r="T163" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z163" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F164" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="T163" s="18"/>
+      <c r="Z163" s="8"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8"/>
       <c r="R164" s="19"/>
-      <c r="S164" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z164" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H165" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z164" s="8"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8"/>
       <c r="R165" s="19"/>
-      <c r="X165" s="21"/>
-      <c r="Z165" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z166" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="X165" s="22"/>
+      <c r="Z165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8"/>
+      <c r="Z166" s="8"/>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -4934,42 +5034,27 @@
       <c r="W167" s="20"/>
       <c r="X167" s="20"/>
       <c r="Y167" s="20"/>
-      <c r="Z167" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z167" s="8"/>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="8"/>
       <c r="B168" s="2"/>
       <c r="H168" s="2"/>
       <c r="N168" s="2"/>
       <c r="T168" s="2"/>
-      <c r="Z168" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Z168" s="8"/>
+    </row>
+    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8"/>
       <c r="B169" s="2"/>
       <c r="H169" s="2"/>
       <c r="N169" s="2"/>
       <c r="T169" s="2"/>
-      <c r="Z169" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="170" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z169" s="8"/>
+    </row>
+    <row r="170" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="2"/>
-      <c r="H170" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H170" s="2"/>
       <c r="N170" s="18"/>
       <c r="T170" s="18"/>
       <c r="Z170" s="8"/>
@@ -5035,17 +5120,11 @@
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B171" s="18" t="n">
-        <v>0</v>
-      </c>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8"/>
+      <c r="B171" s="18"/>
       <c r="F171" s="19"/>
-      <c r="H171" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="H171" s="18"/>
       <c r="L171" s="19"/>
       <c r="N171" s="18"/>
       <c r="P171" s="19"/>
@@ -5053,58 +5132,30 @@
       <c r="T171" s="18"/>
       <c r="Z171" s="8"/>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B172" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="8"/>
       <c r="R172" s="19"/>
       <c r="Z172" s="8"/>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B173" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="8"/>
       <c r="R173" s="19"/>
-      <c r="X173" s="21"/>
+      <c r="X173" s="22"/>
       <c r="Z173" s="8"/>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8"/>
       <c r="Z174" s="8"/>
     </row>
-    <row r="175" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>47</v>
-      </c>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
-      <c r="H175" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="H175" s="20"/>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
@@ -5124,35 +5175,25 @@
       <c r="Y175" s="20"/>
       <c r="Z175" s="8"/>
     </row>
-    <row r="176" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>48</v>
-      </c>
+    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8"/>
       <c r="B176" s="2"/>
-      <c r="H176" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H176" s="2"/>
       <c r="N176" s="2"/>
       <c r="T176" s="2"/>
       <c r="Z176" s="8"/>
     </row>
-    <row r="177" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8"/>
       <c r="B177" s="2"/>
-      <c r="H177" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H177" s="2"/>
       <c r="N177" s="2"/>
       <c r="T177" s="2"/>
       <c r="Z177" s="8"/>
     </row>
-    <row r="178" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="2"/>
-      <c r="H178" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H178" s="2"/>
       <c r="N178" s="18"/>
       <c r="T178" s="18"/>
       <c r="Z178" s="8"/>
@@ -5238,7 +5279,7 @@
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8"/>
       <c r="R181" s="19"/>
-      <c r="X181" s="21"/>
+      <c r="X181" s="22"/>
       <c r="Z181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,7 +5418,7 @@
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8"/>
       <c r="R189" s="19"/>
-      <c r="X189" s="21"/>
+      <c r="X189" s="22"/>
       <c r="Z189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5557,7 @@
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8"/>
       <c r="R197" s="19"/>
-      <c r="X197" s="21"/>
+      <c r="X197" s="22"/>
       <c r="Z197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,7 +5696,7 @@
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8"/>
       <c r="R205" s="19"/>
-      <c r="X205" s="21"/>
+      <c r="X205" s="22"/>
       <c r="Z205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,7 +5835,7 @@
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="8"/>
       <c r="R213" s="19"/>
-      <c r="X213" s="21"/>
+      <c r="X213" s="22"/>
       <c r="Z213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5974,7 @@
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="8"/>
       <c r="R221" s="19"/>
-      <c r="X221" s="21"/>
+      <c r="X221" s="22"/>
       <c r="Z221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6113,7 @@
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="8"/>
       <c r="R229" s="19"/>
-      <c r="X229" s="21"/>
+      <c r="X229" s="22"/>
       <c r="Z229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,7 +6252,7 @@
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="8"/>
       <c r="R237" s="19"/>
-      <c r="X237" s="21"/>
+      <c r="X237" s="22"/>
       <c r="Z237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,7 +6391,7 @@
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="8"/>
       <c r="R245" s="19"/>
-      <c r="X245" s="21"/>
+      <c r="X245" s="22"/>
       <c r="Z245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6530,7 @@
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="8"/>
       <c r="R253" s="19"/>
-      <c r="X253" s="21"/>
+      <c r="X253" s="22"/>
       <c r="Z253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +6669,7 @@
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="8"/>
       <c r="R261" s="19"/>
-      <c r="X261" s="21"/>
+      <c r="X261" s="22"/>
       <c r="Z261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +6808,7 @@
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="8"/>
       <c r="R269" s="19"/>
-      <c r="X269" s="21"/>
+      <c r="X269" s="22"/>
       <c r="Z269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +6947,7 @@
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="8"/>
       <c r="R277" s="19"/>
-      <c r="X277" s="21"/>
+      <c r="X277" s="22"/>
       <c r="Z277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,7 +7086,7 @@
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="8"/>
       <c r="R285" s="19"/>
-      <c r="X285" s="21"/>
+      <c r="X285" s="22"/>
       <c r="Z285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,7 +7225,7 @@
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="8"/>
       <c r="R293" s="19"/>
-      <c r="X293" s="21"/>
+      <c r="X293" s="22"/>
       <c r="Z293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,7 +7364,7 @@
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="8"/>
       <c r="R301" s="19"/>
-      <c r="X301" s="21"/>
+      <c r="X301" s="22"/>
       <c r="Z301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,7 +7503,7 @@
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="8"/>
       <c r="R309" s="19"/>
-      <c r="X309" s="21"/>
+      <c r="X309" s="22"/>
       <c r="Z309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,7 +7642,7 @@
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="8"/>
       <c r="R317" s="19"/>
-      <c r="X317" s="21"/>
+      <c r="X317" s="22"/>
       <c r="Z317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,7 +7781,7 @@
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="8"/>
       <c r="R325" s="19"/>
-      <c r="X325" s="21"/>
+      <c r="X325" s="22"/>
       <c r="Z325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +7920,7 @@
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="8"/>
       <c r="R333" s="19"/>
-      <c r="X333" s="21"/>
+      <c r="X333" s="22"/>
       <c r="Z333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,7 +8059,7 @@
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8"/>
       <c r="R341" s="19"/>
-      <c r="X341" s="21"/>
+      <c r="X341" s="22"/>
       <c r="Z341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,7 +8198,7 @@
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="8"/>
       <c r="R349" s="19"/>
-      <c r="X349" s="21"/>
+      <c r="X349" s="22"/>
       <c r="Z349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8296,7 +8337,7 @@
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="8"/>
       <c r="R357" s="19"/>
-      <c r="X357" s="21"/>
+      <c r="X357" s="22"/>
       <c r="Z357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8435,7 +8476,7 @@
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="8"/>
       <c r="R365" s="19"/>
-      <c r="X365" s="21"/>
+      <c r="X365" s="22"/>
       <c r="Z365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,7 +8615,7 @@
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8"/>
       <c r="R373" s="19"/>
-      <c r="X373" s="21"/>
+      <c r="X373" s="22"/>
       <c r="Z373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,7 +8754,7 @@
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8"/>
       <c r="R381" s="19"/>
-      <c r="X381" s="21"/>
+      <c r="X381" s="22"/>
       <c r="Z381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8852,7 +8893,7 @@
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8"/>
       <c r="R389" s="19"/>
-      <c r="X389" s="21"/>
+      <c r="X389" s="22"/>
       <c r="Z389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,7 +9032,7 @@
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="8"/>
       <c r="R397" s="19"/>
-      <c r="X397" s="21"/>
+      <c r="X397" s="22"/>
       <c r="Z397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,7 +9171,7 @@
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="8"/>
       <c r="R405" s="19"/>
-      <c r="X405" s="21"/>
+      <c r="X405" s="22"/>
       <c r="Z405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,7 +9310,7 @@
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="8"/>
       <c r="R413" s="19"/>
-      <c r="X413" s="21"/>
+      <c r="X413" s="22"/>
       <c r="Z413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,7 +9449,7 @@
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="8"/>
       <c r="R421" s="19"/>
-      <c r="X421" s="21"/>
+      <c r="X421" s="22"/>
       <c r="Z421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9547,7 +9588,7 @@
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="8"/>
       <c r="R429" s="19"/>
-      <c r="X429" s="21"/>
+      <c r="X429" s="22"/>
       <c r="Z429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9686,7 +9727,7 @@
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="8"/>
       <c r="R437" s="19"/>
-      <c r="X437" s="21"/>
+      <c r="X437" s="22"/>
       <c r="Z437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,7 +9866,7 @@
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="8"/>
       <c r="R445" s="19"/>
-      <c r="X445" s="21"/>
+      <c r="X445" s="22"/>
       <c r="Z445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,7 +10005,7 @@
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="8"/>
       <c r="R453" s="19"/>
-      <c r="X453" s="21"/>
+      <c r="X453" s="22"/>
       <c r="Z453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,7 +10144,7 @@
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="8"/>
       <c r="R461" s="19"/>
-      <c r="X461" s="21"/>
+      <c r="X461" s="22"/>
       <c r="Z461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,7 +10283,7 @@
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="8"/>
       <c r="R469" s="19"/>
-      <c r="X469" s="21"/>
+      <c r="X469" s="22"/>
       <c r="Z469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10381,7 +10422,7 @@
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="8"/>
       <c r="R477" s="19"/>
-      <c r="X477" s="21"/>
+      <c r="X477" s="22"/>
       <c r="Z477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10520,7 +10561,7 @@
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="8"/>
       <c r="R485" s="19"/>
-      <c r="X485" s="21"/>
+      <c r="X485" s="22"/>
       <c r="Z485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,7 +10700,7 @@
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="8"/>
       <c r="R493" s="19"/>
-      <c r="X493" s="21"/>
+      <c r="X493" s="22"/>
       <c r="Z493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10798,7 +10839,7 @@
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="8"/>
       <c r="R501" s="19"/>
-      <c r="X501" s="21"/>
+      <c r="X501" s="22"/>
       <c r="Z501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10937,7 +10978,7 @@
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="8"/>
       <c r="R509" s="19"/>
-      <c r="X509" s="21"/>
+      <c r="X509" s="22"/>
       <c r="Z509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11076,7 +11117,7 @@
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="8"/>
       <c r="R517" s="19"/>
-      <c r="X517" s="21"/>
+      <c r="X517" s="22"/>
       <c r="Z517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11215,7 +11256,7 @@
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="8"/>
       <c r="R525" s="19"/>
-      <c r="X525" s="21"/>
+      <c r="X525" s="22"/>
       <c r="Z525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11354,7 +11395,7 @@
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="8"/>
       <c r="R533" s="19"/>
-      <c r="X533" s="21"/>
+      <c r="X533" s="22"/>
       <c r="Z533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,7 +11534,7 @@
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="8"/>
       <c r="R541" s="19"/>
-      <c r="X541" s="21"/>
+      <c r="X541" s="22"/>
       <c r="Z541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11632,7 +11673,7 @@
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="8"/>
       <c r="R549" s="19"/>
-      <c r="X549" s="21"/>
+      <c r="X549" s="22"/>
       <c r="Z549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11771,7 +11812,7 @@
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="8"/>
       <c r="R557" s="19"/>
-      <c r="X557" s="21"/>
+      <c r="X557" s="22"/>
       <c r="Z557" s="8"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tools_n_data/kokuriko-ghibri.xlsx
+++ b/tools_n_data/kokuriko-ghibri.xlsx
@@ -953,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
